--- a/data/award_es.xlsx
+++ b/data/award_es.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Grants\Datos CV\archivos (1)\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F970A8E-0F75-4149-9C14-0527AA1741BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE073CD0-ED73-447A-9261-6E31D9EFF8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27480" yWindow="1350" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="education" sheetId="1" r:id="rId1"/>
+    <sheet name="education" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>what</t>
   </si>
@@ -37,45 +37,12 @@
     <t>why</t>
   </si>
   <si>
-    <t>Grindley Grants</t>
-  </si>
-  <si>
-    <t>Sep. 2014</t>
-  </si>
-  <si>
-    <t>Oct. 2010 - Oct. 2014</t>
-  </si>
-  <si>
-    <t>Annual Prize in Evolutionary Psychology</t>
-  </si>
-  <si>
-    <t>Oct. 2009</t>
-  </si>
-  <si>
-    <t>University of Liverpool International Scholarship</t>
-  </si>
-  <si>
-    <t>Sep. 2008 - Sep. 2009</t>
-  </si>
-  <si>
     <t>Dic. 2018</t>
   </si>
   <si>
-    <t>Dic. 2017</t>
-  </si>
-  <si>
     <t>Dic. 2019</t>
   </si>
   <si>
-    <t>Programa Crédito-Beca</t>
-  </si>
-  <si>
-    <t>Becas Francisco José de Caldas</t>
-  </si>
-  <si>
-    <t>VI Convocatoria de Estímulos a la Excelencia</t>
-  </si>
-  <si>
     <t>VII Convocatoria de Estímulos a la Excelencia</t>
   </si>
   <si>
@@ -85,61 +52,73 @@
     <t>Bogotá, Colombia</t>
   </si>
   <si>
-    <t>Canterbury, Reino Unido</t>
-  </si>
-  <si>
-    <t>Liverpool, Reino Unido</t>
-  </si>
-  <si>
-    <t>Sep. 2020</t>
-  </si>
-  <si>
-    <t>Economics Prize</t>
-  </si>
-  <si>
-    <t>Mejor desempeño general en la maestría</t>
-  </si>
-  <si>
-    <t>IX Convocatoria de Estímulos a la Excelencia</t>
-  </si>
-  <si>
-    <t>Dic. 2022</t>
-  </si>
-  <si>
-    <t>Cambridge, MA, EE.UU.</t>
-  </si>
-  <si>
     <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}</t>
   </si>
   <si>
-    <t>\href{https://minciencias.gov.co/}{Minciencias}</t>
-  </si>
-  <si>
-    <t>\href{https://eps.ac.uk/}{Experimental Psychology Society}</t>
-  </si>
-  <si>
-    <t>\href{https://www.liverpool.ac.uk/life-sciences/}{School of Life Sciences} – University of Liverpool</t>
-  </si>
-  <si>
-    <t>\href{https://www.liverpool.ac.uk/}{University of Liverpool}</t>
-  </si>
-  <si>
-    <t>\href{https://www.colfuturo.org/}{Colfuturo}</t>
-  </si>
-  <si>
-    <t>\href{https://improbable.com/ig/about-the-ig-nobel-prizes/}{Ig Nobel Prize}</t>
-  </si>
-  <si>
-    <t>Por ‘tratar de cuantificar la relación entre la desigualdad de ingresos nacionales en diferentes países y la cantidad promedio de besos boca a boca’ (\href{https://doi.org/10.1038/s41598-019-43267-7}{Watkins, et al., 2019})</t>
-  </si>
-  <si>
     <t>COP\$10.000.000</t>
   </si>
   <si>
-    <t>COP\$7.000.000</t>
-  </si>
-  <si>
     <t>COP\$5.000.000</t>
+  </si>
+  <si>
+    <t>X Convocatoria de Estímulos a la Excelencia</t>
+  </si>
+  <si>
+    <t>Dic. 2023</t>
+  </si>
+  <si>
+    <t>COP\$2.500.000</t>
+  </si>
+  <si>
+    <t>Sep. 2018</t>
+  </si>
+  <si>
+    <t>Valencia, España</t>
+  </si>
+  <si>
+    <t>Nov.2011 - Nov.2012</t>
+  </si>
+  <si>
+    <t>Exención de tasas del Máster Oficial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mención de excelencia Facultad de Psicología </t>
+  </si>
+  <si>
+    <t>Mención por obtener el puntaje más alto entre los estudiantes de psicología de la facultad y 3er lugar a nivel nacional en el Examen de Calidad de la Educación Superior en Colombia (ECAES) versión 2006</t>
+  </si>
+  <si>
+    <t>\href{https://www.uv.es/}{Universidad de Valencia}</t>
+  </si>
+  <si>
+    <t>\href{https://https://www.uv.es/uvcooperacion/es/becas-ayudas/ayudas-estudiantes-paises-cooperacion/becas-luisa-cardona.html/}{Universidad de Valencia}</t>
+  </si>
+  <si>
+    <t>\href{https://www.ucatolica.edu.co/}{Universidad Cátolica de Colombia}</t>
+  </si>
+  <si>
+    <t>Mar.2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grado de Honor </t>
+  </si>
+  <si>
+    <t>Sep. 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejor desempeño entre estudiantes de pregrado de Psicología </t>
+  </si>
+  <si>
+    <t>\href{https://https://www.ucatolica.edu.co/portal/Facultades/facultad-de-psicologia/}{Universidad Cátolica de Colombia}</t>
+  </si>
+  <si>
+    <t>Beca Luisa Cardona</t>
+  </si>
+  <si>
+    <t>Tesis doctoral en Neurociencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mención Cum Laude </t>
   </si>
 </sst>
 </file>
@@ -149,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,12 +259,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -632,7 +605,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -643,50 +616,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,7 +679,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -997,23 +974,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A557E9-1D8F-42BA-A260-220AD35B4EDD}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="79.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1030,183 +1007,160 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
